--- a/biology/Médecine/Johann_Peter_Weidmann/Johann_Peter_Weidmann.xlsx
+++ b/biology/Médecine/Johann_Peter_Weidmann/Johann_Peter_Weidmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Peter Weidmann est un médecin allemand né le 27 juillet 1751 à Zülpich et mort le 23 juin 1819, à l'âge de 68 ans. Il est enterré au cimetière principal de Mayence[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Peter Weidmann est un médecin allemand né le 27 juillet 1751 à Zülpich et mort le 23 juin 1819, à l'âge de 68 ans. Il est enterré au cimetière principal de Mayence.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Peter Weidmann a étudié chez Carl Caspar von Siebold à Wurtzbourg. Weidmann était alors dans le cadre de plusieurs voyages d'études à la France et l'Angleterre une formation complète d'obstétrique à les principaux centres européens comme Strasbourg, Paris, Rouen et à Londres[2]. Après avoir terminé ses études et sa thèse „Comparatio inter sectionem Caesaream et dissectionem cartilaginis et ligamentorum pubis, in partu ob pelvis angustiam impossibili suscipiendas“ 1779, Weidmann a été professeur de chirurgie et d'obstétrique à Mayence le 23 décembre 1782. Johann Peter Weidmann était très proche de l'idée de l'introduction de la naissance prématurée. Envoyé auprès de l'électeur de Mayence Frédéric-Charles Joseph d'Erthal, il réussit comme directeur de la maison d'accouchement à Mayence dans la monastère d’Altmünster sécularisée depuis 1784. Il se spécialisa dans l'art des accouchements et l'enseigna en 1784 avec le titre de professeur à l'école spéciale de médecine de Mayence en anatomie, chirurgie et accouchement[3]. Weidmann a vécu et travaillé jusqu'à sa mort en 1819 à Mayence. Sa tombe est située dans le cimetière principal de Mayence et montre une scène (identifié par le abattu lui à Asclépios, le symbole des pharmaciens et des médecins) dans le côté droit du médecin à gauche de l'enfant atteint d'une mère assise.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Peter Weidmann a étudié chez Carl Caspar von Siebold à Wurtzbourg. Weidmann était alors dans le cadre de plusieurs voyages d'études à la France et l'Angleterre une formation complète d'obstétrique à les principaux centres européens comme Strasbourg, Paris, Rouen et à Londres. Après avoir terminé ses études et sa thèse „Comparatio inter sectionem Caesaream et dissectionem cartilaginis et ligamentorum pubis, in partu ob pelvis angustiam impossibili suscipiendas“ 1779, Weidmann a été professeur de chirurgie et d'obstétrique à Mayence le 23 décembre 1782. Johann Peter Weidmann était très proche de l'idée de l'introduction de la naissance prématurée. Envoyé auprès de l'électeur de Mayence Frédéric-Charles Joseph d'Erthal, il réussit comme directeur de la maison d'accouchement à Mayence dans la monastère d’Altmünster sécularisée depuis 1784. Il se spécialisa dans l'art des accouchements et l'enseigna en 1784 avec le titre de professeur à l'école spéciale de médecine de Mayence en anatomie, chirurgie et accouchement. Weidmann a vécu et travaillé jusqu'à sa mort en 1819 à Mayence. Sa tombe est située dans le cimetière principal de Mayence et montre une scène (identifié par le abattu lui à Asclépios, le symbole des pharmaciens et des médecins) dans le côté droit du médecin à gauche de l'enfant atteint d'une mère assise.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De Necrosi Ossium, Francofurti ad Moenum (Francfort-sur-le-Main), Imprensis Andreaeis, 1793. Folio, pp. (vi), 60, avec 15 gravures  de Georg Joseph Cöntgen, “Graveur de la Cour et de l'Université de Mayence[4]”.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De Necrosi Ossium, Francofurti ad Moenum (Francfort-sur-le-Main), Imprensis Andreaeis, 1793. Folio, pp. (vi), 60, avec 15 gravures  de Georg Joseph Cöntgen, “Graveur de la Cour et de l'Université de Mayence”.
 Entwurf der Geburtshilfe für seine Vorlesungen, Florian Kupferberg, Mainz, 1808; avec préface à André Jeanbon Saint André en ligne</t>
         </is>
       </c>
